--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,22 @@
   </si>
   <si>
     <t>解决方法：执行git config core.autocrlf false（git配置核心。Autocrlf为假）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git hub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、首先执行cd f:进入到f盘下
+2、执行：git clone https://github.com/liangweiweia1/gittest.git/克隆远程仓库到本地文件夹内建立本地工作目录；
+3、执行git add .(或者执行git add 学习笔记.xlsx)增加文件到暂存区并上传git commit -m "增加学习笔  记.xlsx"
+4、将上传到暂存区的文件推送到远程仓库 git push https://github.com/liangweiweia1/gittest.git master
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,6 +810,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1684,7 +1700,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1692,27 +1708,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="38"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="38"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="38"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="38"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="38"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2100,58 +2116,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="40"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="36"/>
       <c r="D2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="36"/>
       <c r="D3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="36"/>
       <c r="D4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="36"/>
       <c r="D5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="40"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="36"/>
       <c r="D6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="41"/>
       <c r="D8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="41"/>
       <c r="D9" t="s">
         <v>89</v>
       </c>
@@ -2186,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2201,7 +2217,7 @@
       <c r="A1" s="42">
         <v>1</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="38" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2209,6 +2225,19 @@
       <c r="A2" s="43"/>
       <c r="B2" s="6" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.15">
+      <c r="B5" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,15 @@
 3、执行git add .(或者执行git add 学习笔记.xlsx)增加文件到暂存区并上传git commit -m "增加学习笔  记.xlsx"
 4、将上传到暂存区的文件推送到远程仓库 git push https://github.com/liangweiweia1/gittest.git master
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三种清空日志的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留问件清空内容第一个：echo test.log访问文档日志；&gt;test.log重定向test.log日志；
+cat /dev/null&gt; test.log保留文件但清空日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -827,6 +836,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,6 +1068,50 @@
         <a:xfrm>
           <a:off x="6657976" y="3324225"/>
           <a:ext cx="4714874" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2752725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>962025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="7524750"/>
+          <a:ext cx="2628900" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1883,6 +1939,14 @@
       </c>
       <c r="B30" s="35" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="114.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.15">
@@ -1924,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -2204,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="命令" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="测试" sheetId="3" r:id="rId3"/>
     <sheet name="Git" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,12 +462,80 @@
 cat /dev/null&gt; test.log保留文件但清空日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>测试级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对被测系统最小单元做的测试（类OR函数）也可能是最小的功能单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对组件/单元与组件/单元之间的接口实施的测试活动，验证接口设计与设计是否一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3分钟集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数间集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块间集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子系统间集成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将通过集成测试的软件，部署在真实的用户环境下执行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以用户为主的测试过程，由项目组成员与用户代表组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>α测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由用户在开发环境下执行的测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户发现问题后有专人统一解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +579,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -742,7 +817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -822,6 +897,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,9 +915,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1411,6 +1490,214 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="双大括号 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1314450" y="2800350"/>
+          <a:ext cx="5572125" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bracePair">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="左大括号 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2314575" y="3009900"/>
+          <a:ext cx="171450" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="左大括号 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="2400300"/>
+          <a:ext cx="295275" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="左大括号 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="4200525"/>
+          <a:ext cx="228600" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1703,7 +1990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
@@ -1756,7 +2043,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1764,27 +2051,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="39"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="39"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="39"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="39"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1945,7 +2232,7 @@
       <c r="A31" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2167,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2180,58 +2467,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="41"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="36"/>
       <c r="D2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="36"/>
       <c r="D3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="36"/>
       <c r="D4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="36"/>
       <c r="D5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="36"/>
       <c r="D6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="41"/>
+      <c r="A8" s="42"/>
       <c r="D8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="D9" t="s">
         <v>89</v>
       </c>
@@ -2252,6 +2539,77 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D12" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C27" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C28" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +2636,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42">
+      <c r="A1" s="43">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -2286,7 +2644,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="6" t="s">
         <v>97</v>
       </c>

--- a/学习笔记.xlsx
+++ b/学习笔记.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>命令 [参数] [路径文件]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,42 @@
   </si>
   <si>
     <t>用户发现问题后有专人统一解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在指定的条件下使用被测对像，验证其是否满足用户显性或隐性需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试关注点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、是否有不正确或遗漏或多余的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、满足系统隐性或显性需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、是否对输入输出做出了正确的响应输出结果是否正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -900,6 +936,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,9 +956,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1668,6 +1707,162 @@
         <a:xfrm>
           <a:off x="1476375" y="4200525"/>
           <a:ext cx="228600" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="左大括号 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581024" y="5114924"/>
+          <a:ext cx="180975" cy="1838326"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="左大括号 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="5010150"/>
+          <a:ext cx="247650" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="左大括号 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="5219700"/>
+          <a:ext cx="238125" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst/>
@@ -2043,7 +2238,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2051,27 +2246,27 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="40"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="40"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="40"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2454,10 +2649,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2467,58 +2662,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="42"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="36"/>
       <c r="D2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="36"/>
       <c r="D3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="36"/>
       <c r="D4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="36"/>
       <c r="D5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="36"/>
       <c r="D6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="D8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="44"/>
       <c r="D9" t="s">
         <v>89</v>
       </c>
@@ -2566,17 +2761,17 @@
       <c r="C19" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D21" s="45" t="s">
+      <c r="D21" s="40" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2597,7 +2792,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="41" t="s">
         <v>116</v>
       </c>
       <c r="D27" t="s">
@@ -2605,11 +2800,50 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="41" t="s">
         <v>118</v>
       </c>
       <c r="D28" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2852,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2636,7 +2871,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43">
+      <c r="A1" s="45">
         <v>1</v>
       </c>
       <c r="B1" s="38" t="s">
@@ -2644,7 +2879,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="6" t="s">
         <v>97</v>
       </c>
